--- a/Results/Descriptive statistics.xlsx
+++ b/Results/Descriptive statistics.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/Repositories/financial_case_studies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/Repositories/financial_case_studies/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16740" tabRatio="500" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptives of Yields (Ortec)" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="33">
   <si>
     <t>Mean</t>
   </si>
@@ -192,8 +192,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -225,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -237,6 +249,12 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -248,6 +266,12 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -797,10 +821,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1121,6 +1145,218 @@
       <c r="I11" s="3">
         <v>0.42366341699999999</v>
       </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3">
+        <v>-1.5743940000000001E-2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.8329082E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2.2394797000000001E-2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-6.5618438000000001E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.956746282</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.88805392699999997</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.79721628099999997</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.177521014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2.2421053E-2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9.3987510000000003E-3</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.956396048</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.90832353799999999</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.85459085499999998</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.65905950800000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2.7887638999999999E-2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2.3990713E-2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>7.9318443000000002E-2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-4.1856854999999998E-2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.95534572299999998</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.88758909399999997</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.79953349399999996</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.28539004099999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3.3396241E-2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2.5883487E-2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.96731131100000001</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.93097553499999997</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.88450085000000001</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.53180715999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3">
+        <v>6.0030075000000002E-2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1.4762226E-2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.97006135599999999</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.91766764199999995</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.84757726200000005</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.17915173000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5.3193984999999999E-2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3.934786E-3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.97052856099999996</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.93215687199999997</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.88558953900000004</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.42366341699999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2837,7 +3073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -3109,10 +3345,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K11"/>
+      <selection activeCell="G23" sqref="A17:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3335,41 +3571,6 @@
         <v>0.62748192599999997</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3">
-        <v>8.8984979999999995E-3</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.35057333699999998</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.81044735499999998</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.61691119500000002</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.64802629599999995</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.85000801199999998</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.69718398800000003</v>
-      </c>
-      <c r="J7" s="3">
-        <v>-0.67776141000000001</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.17204554399999999</v>
-      </c>
-    </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>31</v>
@@ -3509,6 +3710,199 @@
       <c r="K11" s="5">
         <v>1</v>
       </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>7.9026656000000001E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.81044735499999998</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.54230706900000003</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-0.89808832400000005</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-0.257450128</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3">
+        <v>7.9026656000000001E-2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.64802629599999995</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.741396897</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.4268217E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.62748192599999997</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.81044735499999998</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.64802629599999995</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.85000801199999998</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-0.67776141000000001</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.17204554399999999</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.54230706900000003</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.741396897</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.85000801199999998</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-0.37167186000000002</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.52051318300000005</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3">
+        <v>-0.89808832400000005</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1.4268217E-2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-0.67776141000000001</v>
+      </c>
+      <c r="E22" s="3">
+        <v>-0.37167186000000002</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.52923227500000003</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3">
+        <v>-0.257450128</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.62748192599999997</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.17204554399999999</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.52051318300000005</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.52923227500000003</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="5"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G27" s="3"/>
+      <c r="I27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
